--- a/docs/assets/cursos/EP/LOQ4239.xlsx
+++ b/docs/assets/cursos/EP/LOQ4239.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2015</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
     <t>5840560 - Marco Antonio Carvalho Pereira</t>
@@ -105,19 +108,19 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas Expositivas; trabalhos em grupo; exercícios individuais e palestras</t>
+    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas e trabalhos.</t>
+    <t>Média Aritmética dos Projetos, Trabalhos e Exercícios realizados no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude) desenvolvidas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Prova única com nota maior ou igual a 5,0 (cinco)</t>
+    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,85 +621,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
